--- a/The_F.I.R.E_Planner.xlsx
+++ b/The_F.I.R.E_Planner.xlsx
@@ -8,19 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2021-ON THE WAY TO NEW JOURNEY\10. Built-in Template\F.I.R.E\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="viSTqmm++0tJc5RYLzEl4NetuMo0TChFaTZgpFlFEbsADp5SiMQYANG6yey+XHSTn/3sEXhxRwZpG6QQlCdG/A==" workbookSaltValue="Lh+o0I6keEhIy0kjQQ6F+A==" workbookSpinCount="100000" lockStructure="1"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="pRTBAYp0en+mdvnQhjHImXesKtVU2rnoz6usOY31ZjylzFpzUjHVN9HG0nF7bFQOAV1ZFcgUx0twj28VitgqIw==" workbookSaltValue="T5TRz22WHwOGOVeicVTf2A==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710"/>
   </bookViews>
   <sheets>
-    <sheet name="F.I.R.E" sheetId="2" r:id="rId1"/>
-    <sheet name="Post Retirement" sheetId="4" r:id="rId2"/>
-    <sheet name="Pivot" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="Instruction" sheetId="5" r:id="rId1"/>
+    <sheet name="F.I.R.E" sheetId="2" r:id="rId2"/>
+    <sheet name="Post Retirement" sheetId="4" r:id="rId3"/>
+    <sheet name="Pivot" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="AfterRetirement" localSheetId="2">#REF!&gt;=DesiredRetirementAge</definedName>
+    <definedName name="AfterRetirement" localSheetId="3">#REF!&gt;=DesiredRetirementAge</definedName>
     <definedName name="AfterRetirement">#REF!&gt;=DesiredRetirementAge</definedName>
-    <definedName name="Age" localSheetId="2">IF(PlanYear&lt;=Pivot!PlanYears,PlanYear-1+YourCurrentAge,NA())</definedName>
+    <definedName name="Age" localSheetId="3">IF(PlanYear&lt;=Pivot!PlanYears,PlanYear-1+YourCurrentAge,NA())</definedName>
     <definedName name="Age">IF(PlanYear&lt;=PlanYears,PlanYear-1+YourCurrentAge,NA())</definedName>
     <definedName name="AnnualPenionsBenefitsAtRetirement">#REF!</definedName>
     <definedName name="AnnualPensionBenefitAfterRetirementIncreasesPercentage">#REF!</definedName>
@@ -28,34 +34,34 @@
     <definedName name="AnnualPensionCenefitIncreasesUncertaintyPercentage">#REF!</definedName>
     <definedName name="AnnualSavingsAmountUncertaintyPercentage">#REF!</definedName>
     <definedName name="AnnualSavingsIncreasesUncertaintyPercentage">#REF!</definedName>
-    <definedName name="Balance" localSheetId="2">IF(PlanYear&lt;=Pivot!PlanYears,#REF!,NA())</definedName>
+    <definedName name="Balance" localSheetId="3">IF(PlanYear&lt;=Pivot!PlanYears,#REF!,NA())</definedName>
     <definedName name="Balance">IF(PlanYear&lt;=PlanYears,#REF!,NA())</definedName>
-    <definedName name="Balance_Over" localSheetId="2">IF(PlanYear&lt;=Pivot!PlanYears,#REF!,NA())</definedName>
+    <definedName name="Balance_Over" localSheetId="3">IF(PlanYear&lt;=Pivot!PlanYears,#REF!,NA())</definedName>
     <definedName name="Balance_Over">IF(PlanYear&lt;=PlanYears,#REF!,NA())</definedName>
-    <definedName name="Balance_Under" localSheetId="2">IF(PlanYear&lt;=Pivot!PlanYears,#REF!,NA())</definedName>
+    <definedName name="Balance_Under" localSheetId="3">IF(PlanYear&lt;=Pivot!PlanYears,#REF!,NA())</definedName>
     <definedName name="Balance_Under">IF(PlanYear&lt;=PlanYears,#REF!,NA())</definedName>
-    <definedName name="BeforeRetirement" localSheetId="2">#REF!&lt;DesiredRetirementAge</definedName>
+    <definedName name="BeforeRetirement" localSheetId="3">#REF!&lt;DesiredRetirementAge</definedName>
     <definedName name="BeforeRetirement">#REF!&lt;DesiredRetirementAge</definedName>
     <definedName name="CurrentAnnualIncome">#REF!</definedName>
     <definedName name="CurrentAnnualIncomeIncreasesPercentage">#REF!</definedName>
     <definedName name="CurrentAnnualSavingsAmount">#REF!</definedName>
-    <definedName name="CurrentAnnualSavingsAmount_Over" localSheetId="2">CurrentAnnualSavingsAmount+CurrentAnnualSavingsAmount*AnnualSavingsAmountUncertaintyPercentage/2</definedName>
+    <definedName name="CurrentAnnualSavingsAmount_Over" localSheetId="3">CurrentAnnualSavingsAmount+CurrentAnnualSavingsAmount*AnnualSavingsAmountUncertaintyPercentage/2</definedName>
     <definedName name="CurrentAnnualSavingsAmount_Over">CurrentAnnualSavingsAmount+CurrentAnnualSavingsAmount*AnnualSavingsAmountUncertaintyPercentage/2</definedName>
-    <definedName name="CurrentAnnualSavingsAmount_Under" localSheetId="2">CurrentAnnualSavingsAmount-CurrentAnnualSavingsAmount*AnnualSavingsAmountUncertaintyPercentage/2</definedName>
+    <definedName name="CurrentAnnualSavingsAmount_Under" localSheetId="3">CurrentAnnualSavingsAmount-CurrentAnnualSavingsAmount*AnnualSavingsAmountUncertaintyPercentage/2</definedName>
     <definedName name="CurrentAnnualSavingsAmount_Under">CurrentAnnualSavingsAmount-CurrentAnnualSavingsAmount*AnnualSavingsAmountUncertaintyPercentage/2</definedName>
     <definedName name="CurrentAnnualSavingsIncreasesPercentage">#REF!</definedName>
     <definedName name="CurrentRetirementSavingsBalance">#REF!</definedName>
     <definedName name="DesiredRetirementAge">#REF!</definedName>
-    <definedName name="DesiredRetirementIncome" localSheetId="2">IF(PlanYear&lt;=Pivot!PlanYears,Pivot!AfterRetirement*IncomeReplacementAtRetirementPercentage*CurrentAnnualIncome*(1+CurrentAnnualIncomeIncreasesPercentage)^(#REF!-#REF!),NA())</definedName>
+    <definedName name="DesiredRetirementIncome" localSheetId="3">IF(PlanYear&lt;=Pivot!PlanYears,Pivot!AfterRetirement*IncomeReplacementAtRetirementPercentage*CurrentAnnualIncome*(1+CurrentAnnualIncomeIncreasesPercentage)^(#REF!-#REF!),NA())</definedName>
     <definedName name="DesiredRetirementIncome">IF(PlanYear&lt;=PlanYears,AfterRetirement*IncomeReplacementAtRetirementPercentage*CurrentAnnualIncome*(1+CurrentAnnualIncomeIncreasesPercentage)^(#REF!-#REF!),NA())</definedName>
-    <definedName name="EndBalance" localSheetId="2">IF(PlanYear&lt;=Pivot!PlanYears,#REF!+#REF!+#REF!-#REF!+#REF!,NA())</definedName>
+    <definedName name="EndBalance" localSheetId="3">IF(PlanYear&lt;=Pivot!PlanYears,#REF!+#REF!+#REF!-#REF!+#REF!,NA())</definedName>
     <definedName name="EndBalance">IF(PlanYear&lt;=PlanYears,#REF!+#REF!+#REF!-#REF!+#REF!,NA())</definedName>
     <definedName name="IncomeReplacementAtRetirementPercentage">#REF!</definedName>
-    <definedName name="Interest" localSheetId="2">IF(PlanYear&lt;=Pivot!PlanYears,(#REF!*Pivot!BeforeRetirement*InvestmentReturnPreRetirementPercentage)+(#REF!*Pivot!AfterRetirement*InvestmentReturnPostRetirementPercentage),NA())</definedName>
+    <definedName name="Interest" localSheetId="3">IF(PlanYear&lt;=Pivot!PlanYears,(#REF!*Pivot!BeforeRetirement*InvestmentReturnPreRetirementPercentage)+(#REF!*Pivot!AfterRetirement*InvestmentReturnPostRetirementPercentage),NA())</definedName>
     <definedName name="Interest">IF(PlanYear&lt;=PlanYears,(#REF!*BeforeRetirement*InvestmentReturnPreRetirementPercentage)+(#REF!*AfterRetirement*InvestmentReturnPostRetirementPercentage),NA())</definedName>
-    <definedName name="Interest_Over" localSheetId="2">IF(PlanYear&lt;=Pivot!PlanYears,(#REF!*Pivot!BeforeRetirement*(InvestmentReturnPreRetirementPercentage+InvestmentReturnUncertaintyPercentage/2))+(#REF!*Pivot!AfterRetirement*(InvestmentReturnPostRetirementPercentage+InvestmentReturnUncertaintyPercentage/2)),NA())</definedName>
+    <definedName name="Interest_Over" localSheetId="3">IF(PlanYear&lt;=Pivot!PlanYears,(#REF!*Pivot!BeforeRetirement*(InvestmentReturnPreRetirementPercentage+InvestmentReturnUncertaintyPercentage/2))+(#REF!*Pivot!AfterRetirement*(InvestmentReturnPostRetirementPercentage+InvestmentReturnUncertaintyPercentage/2)),NA())</definedName>
     <definedName name="Interest_Over">IF(PlanYear&lt;=PlanYears,(#REF!*BeforeRetirement*(InvestmentReturnPreRetirementPercentage+InvestmentReturnUncertaintyPercentage/2))+(#REF!*AfterRetirement*(InvestmentReturnPostRetirementPercentage+InvestmentReturnUncertaintyPercentage/2)),NA())</definedName>
-    <definedName name="Interest_Under" localSheetId="2">IF(PlanYear&lt;=Pivot!PlanYears,(#REF!*Pivot!BeforeRetirement*(InvestmentReturnPreRetirementPercentage-InvestmentReturnUncertaintyPercentage/2))+(#REF!*Pivot!AfterRetirement*(InvestmentReturnPostRetirementPercentage-InvestmentReturnUncertaintyPercentage/2)),NA())</definedName>
+    <definedName name="Interest_Under" localSheetId="3">IF(PlanYear&lt;=Pivot!PlanYears,(#REF!*Pivot!BeforeRetirement*(InvestmentReturnPreRetirementPercentage-InvestmentReturnUncertaintyPercentage/2))+(#REF!*Pivot!AfterRetirement*(InvestmentReturnPostRetirementPercentage-InvestmentReturnUncertaintyPercentage/2)),NA())</definedName>
     <definedName name="Interest_Under">IF(PlanYear&lt;=PlanYears,(#REF!*BeforeRetirement*(InvestmentReturnPreRetirementPercentage-InvestmentReturnUncertaintyPercentage/2))+(#REF!*AfterRetirement*(InvestmentReturnPostRetirementPercentage-InvestmentReturnUncertaintyPercentage/2)),NA())</definedName>
     <definedName name="InvestmentReturnPostRetirementPercentage">#REF!</definedName>
     <definedName name="InvestmentReturnPreRetirementPercentage">#REF!</definedName>
@@ -91,22 +97,22 @@
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
     <definedName name="LastRow">COUNTIF(#REF!,"&gt;1")+35</definedName>
-    <definedName name="PensionIncome" localSheetId="2">IF(PlanYear&lt;=Pivot!PlanYears,Pivot!AfterRetirement*Pivot!PensionIncomeInflated,NA())</definedName>
+    <definedName name="PensionIncome" localSheetId="3">IF(PlanYear&lt;=Pivot!PlanYears,Pivot!AfterRetirement*Pivot!PensionIncomeInflated,NA())</definedName>
     <definedName name="PensionIncome">IF(PlanYear&lt;=PlanYears,AfterRetirement*PensionIncomeInflated,NA())</definedName>
-    <definedName name="PensionIncome_Over" localSheetId="2">IF(PlanYear&lt;=Pivot!PlanYears,Pivot!AfterRetirement*Pivot!PensionIncomeInflated_Over,NA())</definedName>
+    <definedName name="PensionIncome_Over" localSheetId="3">IF(PlanYear&lt;=Pivot!PlanYears,Pivot!AfterRetirement*Pivot!PensionIncomeInflated_Over,NA())</definedName>
     <definedName name="PensionIncome_Over">IF(PlanYear&lt;=PlanYears,AfterRetirement*PensionIncomeInflated_Over,NA())</definedName>
-    <definedName name="PensionIncome_Under" localSheetId="2">IF(PlanYear&lt;=Pivot!PlanYears,Pivot!AfterRetirement*Pivot!PensionIncomeInflated_Under,NA())</definedName>
+    <definedName name="PensionIncome_Under" localSheetId="3">IF(PlanYear&lt;=Pivot!PlanYears,Pivot!AfterRetirement*Pivot!PensionIncomeInflated_Under,NA())</definedName>
     <definedName name="PensionIncome_Under">IF(PlanYear&lt;=PlanYears,AfterRetirement*PensionIncomeInflated_Under,NA())</definedName>
-    <definedName name="PensionIncomeInflated" localSheetId="2">AnnualPenionsBenefitsAtRetirement*(1+AnnualPensionBenefitAfterRetirementIncreasesPercentage)^(#REF!-DesiredRetirementAge)</definedName>
+    <definedName name="PensionIncomeInflated" localSheetId="3">AnnualPenionsBenefitsAtRetirement*(1+AnnualPensionBenefitAfterRetirementIncreasesPercentage)^(#REF!-DesiredRetirementAge)</definedName>
     <definedName name="PensionIncomeInflated">AnnualPenionsBenefitsAtRetirement*(1+AnnualPensionBenefitAfterRetirementIncreasesPercentage)^(#REF!-DesiredRetirementAge)</definedName>
-    <definedName name="PensionIncomeInflated_Over" localSheetId="2">(AnnualPenionsBenefitsAtRetirement+AnnualPenionsBenefitsAtRetirement*AnnualPensionBenefitAmountUncertaintyPercentage/2)*(1+AnnualPensionBenefitAfterRetirementIncreasesPercentage+AnnualPensionCenefitIncreasesUncertaintyPercentage/2)^(#REF!-DesiredRetirementAge)</definedName>
+    <definedName name="PensionIncomeInflated_Over" localSheetId="3">(AnnualPenionsBenefitsAtRetirement+AnnualPenionsBenefitsAtRetirement*AnnualPensionBenefitAmountUncertaintyPercentage/2)*(1+AnnualPensionBenefitAfterRetirementIncreasesPercentage+AnnualPensionCenefitIncreasesUncertaintyPercentage/2)^(#REF!-DesiredRetirementAge)</definedName>
     <definedName name="PensionIncomeInflated_Over">(AnnualPenionsBenefitsAtRetirement+AnnualPenionsBenefitsAtRetirement*AnnualPensionBenefitAmountUncertaintyPercentage/2)*(1+AnnualPensionBenefitAfterRetirementIncreasesPercentage+AnnualPensionCenefitIncreasesUncertaintyPercentage/2)^(#REF!-DesiredRetirementAge)</definedName>
-    <definedName name="PensionIncomeInflated_Under" localSheetId="2">(AnnualPenionsBenefitsAtRetirement-AnnualPenionsBenefitsAtRetirement*AnnualPensionBenefitAmountUncertaintyPercentage/2)*(1+AnnualPensionBenefitAfterRetirementIncreasesPercentage-AnnualPensionCenefitIncreasesUncertaintyPercentage/2)^(#REF!-DesiredRetirementAge)</definedName>
+    <definedName name="PensionIncomeInflated_Under" localSheetId="3">(AnnualPenionsBenefitsAtRetirement-AnnualPenionsBenefitsAtRetirement*AnnualPensionBenefitAmountUncertaintyPercentage/2)*(1+AnnualPensionBenefitAfterRetirementIncreasesPercentage-AnnualPensionCenefitIncreasesUncertaintyPercentage/2)^(#REF!-DesiredRetirementAge)</definedName>
     <definedName name="PensionIncomeInflated_Under">(AnnualPenionsBenefitsAtRetirement-AnnualPenionsBenefitsAtRetirement*AnnualPensionBenefitAmountUncertaintyPercentage/2)*(1+AnnualPensionBenefitAfterRetirementIncreasesPercentage-AnnualPensionCenefitIncreasesUncertaintyPercentage/2)^(#REF!-DesiredRetirementAge)</definedName>
     <definedName name="PlanYear">ROWS(#REF!)</definedName>
-    <definedName name="PlanYears" localSheetId="2">YearsOfRetirementIncome+(DesiredRetirementAge-YourCurrentAge)</definedName>
+    <definedName name="PlanYears" localSheetId="3">YearsOfRetirementIncome+(DesiredRetirementAge-YourCurrentAge)</definedName>
     <definedName name="PlanYears">YearsOfRetirementIncome+(DesiredRetirementAge-YourCurrentAge)</definedName>
-    <definedName name="Print_Area_Reset" localSheetId="2">OFFSET(#REF!,0,0,LastRow)</definedName>
+    <definedName name="Print_Area_Reset" localSheetId="3">OFFSET(#REF!,0,0,LastRow)</definedName>
     <definedName name="Print_Area_Reset">OFFSET(#REF!,0,0,LastRow)</definedName>
     <definedName name="ResultsDisplay_Failure_1">#REF!</definedName>
     <definedName name="ResultsDisplay_Failure_2">#REF!</definedName>
@@ -117,37 +123,42 @@
     <definedName name="ResultsDisplay_Success_3">#REF!</definedName>
     <definedName name="ResultsDisplay_Success_4">#REF!</definedName>
     <definedName name="ResultsDisplay_Success_5">#REF!</definedName>
-    <definedName name="Salary" localSheetId="2">IF(PlanYear&lt;=Pivot!PlanYears,Pivot!BeforeRetirement*(#REF!+#REF!*CurrentAnnualIncomeIncreasesPercentage),NA())</definedName>
+    <definedName name="Salary" localSheetId="3">IF(PlanYear&lt;=Pivot!PlanYears,Pivot!BeforeRetirement*(#REF!+#REF!*CurrentAnnualIncomeIncreasesPercentage),NA())</definedName>
     <definedName name="Salary">IF(PlanYear&lt;=PlanYears,BeforeRetirement*(#REF!+#REF!*CurrentAnnualIncomeIncreasesPercentage),NA())</definedName>
-    <definedName name="SavingsBalance_Disbursements" localSheetId="2">#REF!:INDEX(#REF!,Pivot!PlanYears)</definedName>
+    <definedName name="SavingsBalance_Disbursements" localSheetId="3">#REF!:INDEX(#REF!,Pivot!PlanYears)</definedName>
     <definedName name="SavingsBalance_Disbursements">#REF!:INDEX(#REF!,PlanYears)</definedName>
-    <definedName name="SavingsBalance_RetiredPeriod" localSheetId="2">#REF!:INDEX(#REF!,Pivot!PlanYears)</definedName>
+    <definedName name="SavingsBalance_RetiredPeriod" localSheetId="3">#REF!:INDEX(#REF!,Pivot!PlanYears)</definedName>
     <definedName name="SavingsBalance_RetiredPeriod">#REF!:INDEX(#REF!,PlanYears)</definedName>
-    <definedName name="SavingsBalance_WorkingPeriod" localSheetId="2">#REF!:INDEX(#REF!,Pivot!PlanYears)</definedName>
+    <definedName name="SavingsBalance_WorkingPeriod" localSheetId="3">#REF!:INDEX(#REF!,Pivot!PlanYears)</definedName>
     <definedName name="SavingsBalance_WorkingPeriod">#REF!:INDEX(#REF!,PlanYears)</definedName>
     <definedName name="Success">#REF!</definedName>
-    <definedName name="UncertaintyCone_Over" localSheetId="2">#REF!:INDEX(#REF!,Pivot!PlanYears)</definedName>
+    <definedName name="TAX">'[1]Bid Tabulation'!$E$158</definedName>
+    <definedName name="Type" localSheetId="0">'[2]Maintenance Work Order'!#REF!</definedName>
+    <definedName name="Type">'[2]Maintenance Work Order'!#REF!</definedName>
+    <definedName name="UncertaintyCone_Over" localSheetId="3">#REF!:INDEX(#REF!,Pivot!PlanYears)</definedName>
     <definedName name="UncertaintyCone_Over">#REF!:INDEX(#REF!,PlanYears)</definedName>
-    <definedName name="UncertaintyCone_Under" localSheetId="2">#REF!:INDEX(#REF!,Pivot!PlanYears)</definedName>
+    <definedName name="UncertaintyCone_Under" localSheetId="3">#REF!:INDEX(#REF!,Pivot!PlanYears)</definedName>
     <definedName name="UncertaintyCone_Under">#REF!:INDEX(#REF!,PlanYears)</definedName>
-    <definedName name="YearlySavings" localSheetId="2">IF(PlanYear&lt;=Pivot!PlanYears,Pivot!BeforeRetirement*Pivot!YearlySavingsInflated,NA())</definedName>
+    <definedName name="valHighlight" localSheetId="0">#REF!</definedName>
+    <definedName name="valHighlight">#REF!</definedName>
+    <definedName name="YearlySavings" localSheetId="3">IF(PlanYear&lt;=Pivot!PlanYears,Pivot!BeforeRetirement*Pivot!YearlySavingsInflated,NA())</definedName>
     <definedName name="YearlySavings">IF(PlanYear&lt;=PlanYears,BeforeRetirement*YearlySavingsInflated,NA())</definedName>
-    <definedName name="YearlySavings_Over" localSheetId="2">IF(PlanYear&lt;=Pivot!PlanYears,Pivot!BeforeRetirement*Pivot!YearlySavingsInflated_Over,NA())</definedName>
+    <definedName name="YearlySavings_Over" localSheetId="3">IF(PlanYear&lt;=Pivot!PlanYears,Pivot!BeforeRetirement*Pivot!YearlySavingsInflated_Over,NA())</definedName>
     <definedName name="YearlySavings_Over">IF(PlanYear&lt;=PlanYears,BeforeRetirement*YearlySavingsInflated_Over,NA())</definedName>
-    <definedName name="YearlySavings_Under" localSheetId="2">IF(PlanYear&lt;=Pivot!PlanYears,Pivot!BeforeRetirement*Pivot!YearlySavingsInflated_Under,NA())</definedName>
+    <definedName name="YearlySavings_Under" localSheetId="3">IF(PlanYear&lt;=Pivot!PlanYears,Pivot!BeforeRetirement*Pivot!YearlySavingsInflated_Under,NA())</definedName>
     <definedName name="YearlySavings_Under">IF(PlanYear&lt;=PlanYears,BeforeRetirement*YearlySavingsInflated_Under,NA())</definedName>
-    <definedName name="YearlySavingsInflated" localSheetId="2">#REF!+#REF!*CurrentAnnualSavingsIncreasesPercentage</definedName>
+    <definedName name="YearlySavingsInflated" localSheetId="3">#REF!+#REF!*CurrentAnnualSavingsIncreasesPercentage</definedName>
     <definedName name="YearlySavingsInflated">#REF!+#REF!*CurrentAnnualSavingsIncreasesPercentage</definedName>
-    <definedName name="YearlySavingsInflated_Over" localSheetId="2">#REF!+#REF!*(CurrentAnnualSavingsIncreasesPercentage+AnnualSavingsIncreasesUncertaintyPercentage/2)</definedName>
+    <definedName name="YearlySavingsInflated_Over" localSheetId="3">#REF!+#REF!*(CurrentAnnualSavingsIncreasesPercentage+AnnualSavingsIncreasesUncertaintyPercentage/2)</definedName>
     <definedName name="YearlySavingsInflated_Over">#REF!+#REF!*(CurrentAnnualSavingsIncreasesPercentage+AnnualSavingsIncreasesUncertaintyPercentage/2)</definedName>
-    <definedName name="YearlySavingsInflated_Under" localSheetId="2">#REF!+#REF!*(CurrentAnnualSavingsIncreasesPercentage-AnnualSavingsIncreasesUncertaintyPercentage/2)</definedName>
+    <definedName name="YearlySavingsInflated_Under" localSheetId="3">#REF!+#REF!*(CurrentAnnualSavingsIncreasesPercentage-AnnualSavingsIncreasesUncertaintyPercentage/2)</definedName>
     <definedName name="YearlySavingsInflated_Under">#REF!+#REF!*(CurrentAnnualSavingsIncreasesPercentage-AnnualSavingsIncreasesUncertaintyPercentage/2)</definedName>
     <definedName name="YearsOfRetirementIncome">#REF!</definedName>
     <definedName name="YourCurrentAge">#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId4"/>
+    <pivotCache cacheId="2" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -157,8 +168,56 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>DELL</author>
+  </authors>
+  <commentList>
+    <comment ref="B4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Input your information</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>DELL</author>
+  </authors>
+  <commentList>
+    <comment ref="B5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Input your information</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>Input</t>
   </si>
@@ -273,6 +332,53 @@
   <si>
     <t>CASH FLOW DURING RETIREMENT</t>
   </si>
+  <si>
+    <t>INSTRUCTION</t>
+  </si>
+  <si>
+    <t>Creator: Thao Pham</t>
+  </si>
+  <si>
+    <t>Read the below information before using this template</t>
+  </si>
+  <si>
+    <t>Instructions</t>
+  </si>
+  <si>
+    <t>Disclaimer</t>
+  </si>
+  <si>
+    <t>- I'm creator of this Excel template and strive to keep the information up to date and correct, I make no representations or warranties of any kind, express or implied, about the completeness, accuracy, reliability, suitability, or availability with respect to this template. Any reliance you place on such information is therefore strictly at your own risk.</t>
+  </si>
+  <si>
+    <t>Copyrights</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - My purpose is to support everyone to enhance their personal financial planning, and to respect my copyright laws any distribution from others is not allowed. If you know any sharing from others or would like to give me any contribution to developing this template, feel free to let me know through my email: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Lato"/>
+      </rPr>
+      <t>bichthaoph0410@gmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>Thanks for downloading Excel Template "The F.I.R.E Planner". I hope you find it useful.</t>
+  </si>
+  <si>
+    <t>F.I.R.E. stands for “Financial Independence, Retire Early.”
+The goal is to save and invest aggressively—somewhere between 50–75% of your income—so you can retire sometime in your 30s or 40s.
+This template will support you to calculate the retirement age and cash flow during retirement</t>
+  </si>
+  <si>
+    <t>- Click on each object contain worksheet name on the first row to quickly go to the specific worksheet.
+- Input your information in the Input area.</t>
+  </si>
 </sst>
 </file>
 
@@ -283,7 +389,7 @@
     <numFmt numFmtId="164" formatCode="0.0000%"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -401,8 +507,57 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Lato"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Lato"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Lato"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Lato"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Lato"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Lato"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -439,8 +594,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -470,8 +631,124 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="3" tint="0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3" tint="0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="2" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="2" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="2" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="2" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
@@ -483,8 +760,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment horizontal="left" indent="1"/>
@@ -633,13 +914,88 @@
     <xf numFmtId="165" fontId="8" fillId="4" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="7" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="8" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="8" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="Comma" xfId="6" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="3"/>
     <cellStyle name="Heading 1 2" xfId="5"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2 2" xfId="8"/>
+    <cellStyle name="Normal 3" xfId="7"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="4"/>
   </cellStyles>
@@ -2120,6 +2476,287 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6025716</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>81049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>63498</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>519961</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rounded Rectangle 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7359216" y="81049"/>
+          <a:ext cx="1118032" cy="438912"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="10000"/>
+                  <a:lumOff val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>POST</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="10000"/>
+                  <a:lumOff val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> RETIREMENT</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="10000"/>
+                <a:lumOff val="90000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4908614</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>79929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5960174</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>518841</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rounded Rectangle 2">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6242114" y="79929"/>
+          <a:ext cx="1051560" cy="438912"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="10000"/>
+              <a:lumOff val="90000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="10000"/>
+                  <a:lumOff val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>F.I.R.E</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="10000"/>
+                <a:lumOff val="90000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3936998</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>79307</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4868329</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>518219</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rounded Rectangle 3">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5270498" y="79307"/>
+          <a:ext cx="931331" cy="438912"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>INSTRUCTION</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -2152,7 +2789,609 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>478993</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>30317</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>282575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>469229</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rounded Rectangle 3">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6203518" y="30317"/>
+          <a:ext cx="1118032" cy="438912"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="10000"/>
+                  <a:lumOff val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>POST</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="10000"/>
+                  <a:lumOff val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> RETIREMENT</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="10000"/>
+                <a:lumOff val="90000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1009716</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>29197</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>413451</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>468109</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rounded Rectangle 4">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5086416" y="29197"/>
+          <a:ext cx="1051560" cy="438912"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>F.I.R.E</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>969431</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>467487</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rounded Rectangle 5">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="28575"/>
+          <a:ext cx="931331" cy="438912"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>INSTRUCTION</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>221818</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>20792</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>459704</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rounded Rectangle 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7813243" y="20792"/>
+          <a:ext cx="1118032" cy="438912"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>POST</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> RETIREMENT</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171516</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19672</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>156276</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>458584</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rounded Rectangle 2">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6696141" y="19672"/>
+          <a:ext cx="1051560" cy="438912"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>F.I.R.E</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>131231</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>457962</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rounded Rectangle 3">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5724525" y="19050"/>
+          <a:ext cx="931331" cy="438912"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>INSTRUCTION</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Bid Tabulation"/>
+      <sheetName val="Bid Tabulation - BLANK"/>
+      <sheetName val="- Disclaimer -"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="158">
+          <cell r="E158">
+            <v>9.9000000000000005E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Maintenance Work Order"/>
+      <sheetName val="BLANK - Maintenance Work Order "/>
+      <sheetName val="- Disclaimer -"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Instruction"/>
+      <sheetName val="Stock Portfolio"/>
+      <sheetName val="Money Transferring"/>
+      <sheetName val="ROI"/>
+      <sheetName val="Current Portfolio"/>
+      <sheetName val="Stock list"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3746,7 +4985,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="A1:D14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0" measureFilter="1"/>
@@ -4220,10 +5459,163 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="2.83203125" style="53" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="53" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="106.33203125" style="54" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="54" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" style="54" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="54" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" style="54" customWidth="1"/>
+    <col min="8" max="9" width="17.5" style="54" customWidth="1"/>
+    <col min="10" max="16384" width="9.33203125" style="54"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="25" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A1" s="51"/>
+      <c r="B1" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="52"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1">
+      <c r="C2" s="53"/>
+      <c r="F2" s="55"/>
+    </row>
+    <row r="3" spans="1:9" ht="20.25" thickBot="1">
+      <c r="B3" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="57"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="59"/>
+      <c r="H3" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="61"/>
+    </row>
+    <row r="4" spans="1:9" ht="19.5">
+      <c r="B4" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="63"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="66"/>
+    </row>
+    <row r="5" spans="1:9" ht="19.5">
+      <c r="B5" s="67"/>
+      <c r="C5" s="68"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+    </row>
+    <row r="6" spans="1:9" ht="41.25" customHeight="1">
+      <c r="B6" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+    </row>
+    <row r="8" spans="1:9" ht="25.5">
+      <c r="B8" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="72" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9" s="74"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+    </row>
+    <row r="10" spans="1:9" ht="51">
+      <c r="B10" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="75"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11" s="74"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+    </row>
+    <row r="12" spans="1:9" ht="51">
+      <c r="B12" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="75"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="+xEOSG7vcILN70liXbyxxV25PJpz97OVFfiENAjX3EhelSaqiZlqAg+8ooIjxVrS83MkWteiY219ShwOuoaUvg==" saltValue="Ab0vqO01G2X/sEkYnDRWWg==" spinCount="100000" sheet="1" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="2">
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B6:E6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O135"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9993,19 +11385,20 @@
       <c r="O135" s="39"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="uOXRYWOJ42i3EZKHVvbqVNvpB7q2xH4IBONglOaIphtqP02LrzQ3fy7udD2yZP3vdUtwM4NWuHkcT2Qf14Zzgw==" saltValue="gv3v4tHms+dENofrh/6JKw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="nrVk0/vHQvYiXQFgrJw2qGZ8UR65vL6230i879KHaLObqrRCh78ID9QOKAx6RqGpdtSGFj/u5syUclIlOQWuFg==" saltValue="KfIUI1ZSvCITdSNhWWYq2A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -11421,12 +12814,14 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="CqrO9q6QIT2S2yulW42W6KYnE4FNS12WLkTx8VhadXEWigBMPuWnL5l4V1UPggdsCy0LPsx8Sv9Um3VlfCM8WA==" saltValue="u4Q64jzxcTI20BEPjPleYw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9Fwv18UabcQFjG2w6VhzhN2h9tn2A8nUWrvAoqg2waLlSih3GxY/GyDSOHJHyqYbVUUWTztjxwfsfTIeSswX+g==" saltValue="a8swM9K7phxx8lsCliI+Xg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>

--- a/The_F.I.R.E_Planner.xlsx
+++ b/The_F.I.R.E_Planner.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="pRTBAYp0en+mdvnQhjHImXesKtVU2rnoz6usOY31ZjylzFpzUjHVN9HG0nF7bFQOAV1ZFcgUx0twj28VitgqIw==" workbookSaltValue="T5TRz22WHwOGOVeicVTf2A==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instruction" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,6 @@
   <externalReferences>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
-    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="AfterRetirement" localSheetId="3">#REF!&gt;=DesiredRetirementAge</definedName>
@@ -158,7 +157,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -174,7 +173,7 @@
     <author>DELL</author>
   </authors>
   <commentList>
-    <comment ref="B4" authorId="0" shapeId="0">
+    <comment ref="B6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -184,7 +183,129 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Input your information</t>
+          <t>Enter your current age</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Enter your current annual income (after tax)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Enter the % of your salary you're currently saving each year.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Enter your current portfolio amount</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Enter your expected annual salary increase</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Enter a return rate that you expect your investments to earn over time</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Enter a value to account for inflation each year. Can reference to below source: 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>https://tradingeconomics.com/vietnam/inflation-cpi</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Enter your desired Withdrawal rate each year during Retirement (LeanFI ~ 5%, FI ~ 4% FatFI ~ 3%)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Enter the % of your current income needed in Retirement. The inflation is accounted for you. </t>
         </r>
       </text>
     </comment>
@@ -212,12 +333,78 @@
         </r>
       </text>
     </comment>
+    <comment ref="B6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Enter your expected annual salary increase during Retirement</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Enter a return rate that you expect your investments to earn over time</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Enter a value to account for inflation each year. Can reference to below source: 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>https://tradingeconomics.com/vietnam/inflation-cpi</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Enter % of Annual income that you expect continue to earn after Retirement</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>Input</t>
   </si>
@@ -379,6 +566,9 @@
     <t>- Click on each object contain worksheet name on the first row to quickly go to the specific worksheet.
 - Input your information in the Input area.</t>
   </si>
+  <si>
+    <t>When your Able to Draw exceeds your Desired Income you are financially independent and have achieved financial freedom.</t>
+  </si>
 </sst>
 </file>
 
@@ -389,7 +579,7 @@
     <numFmt numFmtId="164" formatCode="0.0000%"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -551,6 +741,12 @@
     </font>
     <font>
       <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -939,12 +1135,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="8" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -969,9 +1159,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -986,6 +1173,15 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -3371,29 +3567,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Instruction"/>
-      <sheetName val="Stock Portfolio"/>
-      <sheetName val="Money Transferring"/>
-      <sheetName val="ROI"/>
-      <sheetName val="Current Portfolio"/>
-      <sheetName val="Stock list"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="DELL" refreshedDate="44488.449260763889" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="101">
   <cacheSource type="worksheet">
@@ -4985,7 +5158,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="A1:D14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0" measureFilter="1"/>
@@ -5461,7 +5634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -5501,102 +5674,102 @@
       <c r="C3" s="57"/>
       <c r="D3" s="58"/>
       <c r="E3" s="59"/>
-      <c r="H3" s="60" t="s">
+      <c r="H3" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="61"/>
+      <c r="I3" s="74"/>
     </row>
     <row r="4" spans="1:9" ht="19.5">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="66"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="64"/>
     </row>
     <row r="5" spans="1:9" ht="19.5">
-      <c r="B5" s="67"/>
-      <c r="C5" s="68"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="66"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
     </row>
     <row r="6" spans="1:9" ht="41.25" customHeight="1">
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
     </row>
     <row r="8" spans="1:9" ht="25.5">
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="B9" s="74"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
     </row>
     <row r="10" spans="1:9" ht="51">
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="72" t="s">
+      <c r="C10" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="75"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="B11" s="74"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
     </row>
     <row r="12" spans="1:9" ht="51">
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="72" t="s">
+      <c r="C12" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="75"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="+xEOSG7vcILN70liXbyxxV25PJpz97OVFfiENAjX3EhelSaqiZlqAg+8ooIjxVrS83MkWteiY219ShwOuoaUvg==" saltValue="Ab0vqO01G2X/sEkYnDRWWg==" spinCount="100000" sheet="1" autoFilter="0" pivotTables="0"/>
@@ -5614,8 +5787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O135"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5653,7 +5826,9 @@
       </c>
     </row>
     <row r="3" spans="1:9" s="22" customFormat="1" ht="15">
-      <c r="B3" s="31"/>
+      <c r="B3" s="31" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="15.75">
       <c r="B4" s="17" t="s">
@@ -11385,7 +11560,7 @@
       <c r="O135" s="39"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="nrVk0/vHQvYiXQFgrJw2qGZ8UR65vL6230i879KHaLObqrRCh78ID9QOKAx6RqGpdtSGFj/u5syUclIlOQWuFg==" saltValue="KfIUI1ZSvCITdSNhWWYq2A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Pl0EtEZEks+wSxJw8fxjAjspn8sVoGNvFH6W+a/dokzB1k5sl7jgvx+CrTjwvmnLfzVf1o9Yv97WKF1Icl+Nhg==" saltValue="wcc8yN1KzLNHwshAjgqd9A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -11397,8 +11572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -12814,7 +12989,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9Fwv18UabcQFjG2w6VhzhN2h9tn2A8nUWrvAoqg2waLlSih3GxY/GyDSOHJHyqYbVUUWTztjxwfsfTIeSswX+g==" saltValue="a8swM9K7phxx8lsCliI+Xg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="l+oxJV5f8fP8GMAqd4KSO+xPQQ22IIxBReCZZHpCLrLqXsktrmI84QA2R4D0T6pK83EXT1vV0OxEN0vNKnGo9g==" saltValue="giiSR4XFR9oe2Leiewnr0w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
